--- a/data/raw_data/2012/permits-issued-by-nationality-2012.xlsx
+++ b/data/raw_data/2012/permits-issued-by-nationality-2012.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2012\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C464F8-EBC7-437F-ADB8-9A39962C04AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14940" windowHeight="7875"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$108</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>Year</t>
   </si>
@@ -73,9 +93,6 @@
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Bosnia Herzegovina</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -130,24 +147,15 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Indian</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Iran</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -169,24 +177,9 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea (Republic of (South))</t>
-  </si>
-  <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
@@ -199,9 +192,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -220,9 +210,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -253,36 +240,18 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Palestinian Territory,Occupied</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Samoa(USA)</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -298,15 +267,6 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -334,31 +294,46 @@
     <t>United States</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>(Not Categorized)</t>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,6 +542,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -615,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,9 +626,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,6 +678,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -858,11 +870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1184,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1193,7 +1205,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -1214,7 +1226,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
         <v>65</v>
@@ -1235,7 +1247,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>7</v>
@@ -1256,7 +1268,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1277,7 +1289,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>81</v>
@@ -1298,7 +1310,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>156</v>
@@ -1319,7 +1331,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>5</v>
@@ -1340,7 +1352,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1361,7 +1373,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1382,7 +1394,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -1403,7 +1415,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
         <v>17</v>
@@ -1424,7 +1436,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -1445,7 +1457,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -1466,7 +1478,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1487,7 +1499,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -1508,7 +1520,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -1529,7 +1541,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -1550,7 +1562,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -1571,7 +1583,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
@@ -1592,7 +1604,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
         <v>1082</v>
@@ -1613,7 +1625,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -1634,7 +1646,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
@@ -1655,7 +1667,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -1676,7 +1688,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39" s="6">
         <v>5</v>
@@ -1697,7 +1709,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -1718,7 +1730,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6">
         <v>35</v>
@@ -1739,7 +1751,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -1760,7 +1772,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="6">
         <v>36</v>
@@ -1781,7 +1793,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6">
         <v>8</v>
@@ -1802,7 +1814,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6">
         <v>4</v>
@@ -1823,7 +1835,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -1844,7 +1856,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -1865,7 +1877,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -1886,7 +1898,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C49" s="6">
         <v>18</v>
@@ -1907,7 +1919,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -1928,7 +1940,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -1949,7 +1961,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -1970,7 +1982,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -1991,7 +2003,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -2012,7 +2024,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C55" s="6">
         <v>8</v>
@@ -2033,7 +2045,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -2054,7 +2066,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="9" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C57" s="6">
         <v>2</v>
@@ -2075,7 +2087,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C58" s="6">
         <v>2</v>
@@ -2096,7 +2108,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C59" s="6">
         <v>84</v>
@@ -2117,7 +2129,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C60" s="6">
         <v>0</v>
@@ -2138,7 +2150,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C61" s="6">
         <v>7</v>
@@ -2159,7 +2171,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C62" s="6">
         <v>7</v>
@@ -2180,7 +2192,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C63" s="6">
         <v>3</v>
@@ -2201,7 +2213,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C64" s="6">
         <v>5</v>
@@ -2222,7 +2234,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C65" s="6">
         <v>0</v>
@@ -2243,7 +2255,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6">
         <v>9</v>
@@ -2264,7 +2276,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C67" s="6">
         <v>1</v>
@@ -2285,7 +2297,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6">
         <v>6</v>
@@ -2306,7 +2318,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C69" s="6">
         <v>17</v>
@@ -2327,7 +2339,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C70" s="6">
         <v>0</v>
@@ -2348,7 +2360,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C71" s="6">
         <v>0</v>
@@ -2369,7 +2381,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C72" s="6">
         <v>27</v>
@@ -2390,7 +2402,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C73" s="6">
         <v>0</v>
@@ -2411,7 +2423,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C74" s="6">
         <v>57</v>
@@ -2432,7 +2444,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
@@ -2453,7 +2465,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -2474,7 +2486,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C77" s="6">
         <v>1</v>
@@ -2495,7 +2507,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C78" s="6">
         <v>116</v>
@@ -2516,7 +2528,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C79" s="6">
         <v>8</v>
@@ -2537,7 +2549,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C80" s="6">
         <v>205</v>
@@ -2558,7 +2570,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C81" s="6">
         <v>39</v>
@@ -2579,7 +2591,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -2600,7 +2612,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="6">
         <v>0</v>
@@ -2621,7 +2633,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C84" s="6">
         <v>5</v>
@@ -2642,7 +2654,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C85" s="6">
         <v>6</v>
@@ -2663,7 +2675,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C86" s="6">
         <v>52</v>
@@ -2684,7 +2696,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C87" s="6">
         <v>7</v>
@@ -2705,7 +2717,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C88" s="6">
         <v>2</v>
@@ -2726,7 +2738,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C89" s="6">
         <v>2</v>
@@ -2747,7 +2759,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C90" s="6">
         <v>3</v>
@@ -2768,7 +2780,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="9" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C91" s="6">
         <v>2</v>
@@ -2789,7 +2801,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" s="6">
         <v>1</v>
@@ -2810,7 +2822,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="9" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C93" s="6">
         <v>15</v>
@@ -2831,7 +2843,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="9" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C94" s="6">
         <v>7</v>
@@ -2852,7 +2864,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
@@ -2873,7 +2885,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C96" s="6">
         <v>50</v>
@@ -2894,7 +2906,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C97" s="6">
         <v>1</v>
@@ -2915,7 +2927,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C98" s="6">
         <v>2</v>
@@ -2936,7 +2948,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C99" s="6">
         <v>47</v>
@@ -2957,7 +2969,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="9" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C100" s="6">
         <v>2</v>
@@ -2978,7 +2990,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6">
         <v>0</v>
@@ -2999,7 +3011,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C102" s="6">
         <v>441</v>
@@ -3020,7 +3032,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C103" s="6">
         <v>1</v>
@@ -3041,7 +3053,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="9" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C104" s="6">
         <v>0</v>
@@ -3062,7 +3074,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C105" s="6">
         <v>2</v>
@@ -3083,7 +3095,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C106" s="6">
         <v>1</v>
@@ -3104,7 +3116,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="9" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C107" s="6">
         <v>5</v>
@@ -3125,7 +3137,7 @@
     <row r="108" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C108" s="12">
         <v>1</v>
@@ -3144,6 +3156,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G108" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>